--- a/in-progress/Mortezaei_2011_CompSciTech/master_template_treated.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/master_template_treated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidjany/Desktop/Duke Internship/10.1016:j.compscitech.2011.02.012/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6150837D-DB15-3149-ADD5-10E53B8667FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA5F2D0-4997-8842-927F-ED1A87876628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="605" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="605" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="legend" sheetId="14" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="645">
   <si>
     <t>data origin</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2509,9 +2509,6 @@
   </si>
   <si>
     <t>Aerosil was sonicated in toluene</t>
-  </si>
-  <si>
-    <t>twice its weight ratio</t>
   </si>
   <si>
     <t>magnetic stirring
@@ -5845,8 +5842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I211"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6612,9 +6609,7 @@
       <c r="A78" s="94" t="s">
         <v>271</v>
       </c>
-      <c r="B78" s="95" t="s">
-        <v>632</v>
-      </c>
+      <c r="B78" s="95"/>
       <c r="C78" s="95"/>
       <c r="D78" s="93"/>
       <c r="F78" s="99" t="s">
@@ -6661,7 +6656,7 @@
         <v>274</v>
       </c>
       <c r="B81" s="166" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C81" s="77"/>
       <c r="D81" s="138"/>
@@ -6825,7 +6820,7 @@
         <v>529</v>
       </c>
       <c r="B91" s="146" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C91" s="147"/>
       <c r="D91" s="148"/>
@@ -6883,7 +6878,7 @@
         <v>165</v>
       </c>
       <c r="C95" s="132" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D95" s="138"/>
       <c r="F95" s="80" t="s">
@@ -8132,7 +8127,7 @@
         <v>274</v>
       </c>
       <c r="B11" s="166" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C11" s="77"/>
       <c r="D11" s="138"/>
@@ -8378,7 +8373,7 @@
         <v>274</v>
       </c>
       <c r="B26" s="133" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C26" s="77"/>
       <c r="D26" s="138"/>
@@ -8540,7 +8535,7 @@
         <v>274</v>
       </c>
       <c r="B36" s="133" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C36" s="77"/>
       <c r="D36" s="138"/>
@@ -8696,7 +8691,7 @@
         <v>315</v>
       </c>
       <c r="B46" s="133" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C46" s="77"/>
       <c r="D46" s="138"/>
@@ -8835,7 +8830,7 @@
         <v>60</v>
       </c>
       <c r="C55" s="132" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D55" s="138"/>
       <c r="F55" s="140" t="s">
@@ -8944,7 +8939,7 @@
         <v>481</v>
       </c>
       <c r="B62" s="133" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C62" s="77"/>
       <c r="D62" s="138"/>
@@ -8979,7 +8974,7 @@
         <v>200</v>
       </c>
       <c r="C64" s="132" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D64" s="138"/>
       <c r="F64" s="76" t="s">
@@ -11027,7 +11022,7 @@
         <v>209</v>
       </c>
       <c r="B74" s="166" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C74" s="126"/>
       <c r="D74" s="126"/>
@@ -11041,7 +11036,7 @@
         <v>217</v>
       </c>
       <c r="B75" s="133" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C75" s="126"/>
       <c r="D75" s="126"/>
@@ -12290,8 +12285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12419,7 +12414,7 @@
         <v>511</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C19" s="24"/>
     </row>
@@ -12428,7 +12423,7 @@
         <v>511</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C20" s="133"/>
     </row>
@@ -12437,7 +12432,7 @@
         <v>511</v>
       </c>
       <c r="B21" s="133" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C21" s="24"/>
     </row>
@@ -13063,8 +13058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13269,7 +13264,7 @@
       <c r="B26" s="133"/>
       <c r="C26" s="24"/>
       <c r="D26" s="29" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="24"/>
